--- a/Database Schema.xlsx
+++ b/Database Schema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSU ACM-W\LearningBootcamp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSU ACM-W\LearningBootcamp2\LearningBootcamp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9972" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_Employee" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>emp_id</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(mgr_id) REFERENCES employee(emp_id) ON DELETE SET NULL</t>
+  </si>
+  <si>
+    <t>mgr_id</t>
+  </si>
+  <si>
+    <t>19/2/2019</t>
+  </si>
+  <si>
+    <t>25/5/2016</t>
+  </si>
+  <si>
+    <t>13/9/2020</t>
   </si>
 </sst>
 </file>
@@ -270,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,6 +327,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +612,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +927,7 @@
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -918,13 +935,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -934,67 +951,172 @@
       <c r="C2" s="6">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6">
+        <v>101</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6">
+        <v>102</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6">
+        <v>103</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6">
+        <v>104</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6">
+        <v>105</v>
+      </c>
+      <c r="D7" s="8">
         <v>42132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6">
-        <v>105</v>
-      </c>
-      <c r="D3" s="8">
-        <v>43771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+      <c r="C8" s="6">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6">
+        <v>107</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1143,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Database Schema.xlsx
+++ b/Database Schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9972" activeTab="1"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_Employee" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -329,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +937,7 @@
       <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1072,9 +1072,9 @@
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1130,13 +1130,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>500</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>501</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>502</v>
       </c>
       <c r="B4" t="s">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>503</v>
       </c>
       <c r="B5" t="s">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>504</v>
       </c>
       <c r="B6" t="s">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>505</v>
       </c>
       <c r="B7" t="s">
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>506</v>
       </c>
       <c r="B8" t="s">
@@ -1279,7 +1279,7 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1293,7 +1293,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>500</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1307,7 +1307,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>501</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1321,7 +1321,7 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>502</v>
       </c>
       <c r="C4" t="s">
@@ -1335,7 +1335,7 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>503</v>
       </c>
       <c r="C5" t="s">
@@ -1349,7 +1349,7 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>504</v>
       </c>
       <c r="C6" t="s">
@@ -1363,7 +1363,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>505</v>
       </c>
       <c r="C7" t="s">
@@ -1377,7 +1377,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>506</v>
       </c>
       <c r="C8" t="s">

--- a/Database Schema.xlsx
+++ b/Database Schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9972" activeTab="1"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9972" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_Employee" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>emp_id</t>
   </si>
@@ -209,13 +209,7 @@
     <t>mgr_id</t>
   </si>
   <si>
-    <t>19/2/2019</t>
-  </si>
-  <si>
     <t>25/5/2016</t>
-  </si>
-  <si>
-    <t>13/9/2020</t>
   </si>
 </sst>
 </file>
@@ -913,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +921,7 @@
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -941,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -952,165 +946,67 @@
         <v>100</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="8">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6">
-        <v>102</v>
-      </c>
-      <c r="D4" s="8">
-        <v>43771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6">
-        <v>103</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>104</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6">
-        <v>105</v>
-      </c>
-      <c r="D7" s="8">
         <v>42132</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8">
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6">
-        <v>107</v>
-      </c>
-      <c r="D9" s="8">
-        <v>41518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
-        <v>108</v>
-      </c>
-      <c r="D10" s="8">
-        <v>43963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1125,7 +1021,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database Schema.xlsx
+++ b/Database Schema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9972" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="5616" yWindow="0" windowWidth="22104" windowHeight="9972" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_Employee" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,19 +1159,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1179,142 +1179,139 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="13">
         <v>500</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="13">
         <v>501</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="13">
         <v>502</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="13">
         <v>503</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="13">
         <v>504</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="13">
         <v>505</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="13">
         <v>506</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="6">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
